--- a/Biz_Info.xlsx
+++ b/Biz_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="전국" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="대전" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="전국" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대전" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -86,45 +86,45 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="-2998082219615492661" xfId="1"/>
-    <cellStyle hidden="0" name="-7950799525544522642" xfId="2"/>
-    <cellStyle hidden="0" name="-8466948810123298649" xfId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="-4548099135142436161" xfId="1" hidden="0"/>
+    <cellStyle name="-867067947275467990" xfId="2" hidden="0"/>
+    <cellStyle name="-2802592376102399337" xfId="3" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -485,15 +485,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="97.5"/>
+    <col width="91" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
@@ -582,40 +582,40 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>2021년 물산업 우수기술 창업공모전 참여기업 모집 공고</t>
+          <t>2021년 3차 창업기업지원서비스 바우처 참여기업 추가모집 공고</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>물산업분야 &amp;#40;예비&amp;#41;창업기업의 육성 및 창업활성화를 위하여 우수기술&amp;#40;아이디어&amp;#41;을 발굴하고 시상 및 상금을 지원해 드리는 사업입니다.
-☞ 물산업 우수기술&amp;#40;아이디어&amp;#41;을 보유한 &amp;#40;예비&amp;#41;창업기업
-☞ 환경부장관상&amp;#40;500만원&amp;#41;, 대구광역시장상&amp;#40;400만원&amp;#41; 등 지원</t>
+          <t>초기 창업기업의 사업 안정화를 도모하기 위하여 세무ㆍ회계, 기술보호&amp;#40;임치&amp;#41; 대행 수수료를 바우처 형태로 지원해 드리는 사업입니다.
+☞ 대표자가 만 39세 이하이고 업력 3년 이내인 기업
+☞ 세금계산서상 공급가액의 70%, 최대 100만원까지 지원</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068768&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071119&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>20210901</v>
+        <v>20211207</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>20210930</v>
+        <v>20211217</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2021-09-01 ~ 2021-09-30</t>
+          <t>2021-12-07 ~ 2021-12-17</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>환경부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>한국환경공단</t>
+          <t>창업진흥원</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -625,11 +625,11 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2021.09.02</t>
+          <t>2021.12.07</t>
         </is>
       </c>
       <c r="N2" s="3" t="n">
-        <v>98</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3">
@@ -637,49 +637,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>2021년 제4회 통신사 대상 비대면 IR 참가기업 모집 공고</t>
+          <t>2021년 미국 American Express 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>창의적, 혁신적 아이디어 및 기술을 보유한 ICT 분야 유망 창업ㆍ벤처기업을 대상으로 언택트 IR을 통한 업무 협력을 지원해 드리는 사업입니다.
-☞ ICT 분야 창업ㆍ벤처기업
-☞ 언택트 IR을 통한 업무협력 지원</t>
+          <t>국내 API 서비스 분야의 스타트업 기업을 대상으로 해외시장 진출을 위해 미국 American Express 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 미국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068740&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071106&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>20210901</v>
+        <v>20211203</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20210914</v>
+        <v>20211213</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>2021-09-01 ~ 2021-09-14</t>
+          <t>2021-12-03 ~ 2021-12-13</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>한국통신사업자연합회</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -689,11 +689,11 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>2021.09.02</t>
+          <t>2021.12.06</t>
         </is>
       </c>
       <c r="N3" s="3" t="n">
-        <v>127</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4">
@@ -701,49 +701,49 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>2021년 제6회 해양스타트업 대회 참여기업 모집 공고</t>
+          <t>2021년 미국 P&amp;G Oral Care 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>해양 산업 분야에 우수한 아이디어를 보유하고 있는 예비 창업자 및 초기기업을 발굴해 전문기업으로 발돋움 할 수 있도록 업체 홍보 및 수상금을 지원해 드리는 사업입니다.
-☞ 해양 관련 예비 창업자 및 5년 이하 신생 스타트업
-☞ 해양수산부장관상 3백만원, 부산광역시장상 200만원, 부산일보사장상 100만원 시상</t>
+          <t>국내 구강관리 관련 분야의 스타트업 기업을 대상으로 해외시장 진출을 위해 미국 P&amp;G Oral Care 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 미국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068732&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071088&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>20210816</v>
+        <v>20211203</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>20211008</v>
+        <v>20211210</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>2021-08-16 ~ 2021-10-08</t>
+          <t>2021-12-03 ~ 2021-12-10</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>해양수산부</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>해양수산과학기술진흥원</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -753,11 +753,11 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>2021.09.01</t>
+          <t>2021.12.06</t>
         </is>
       </c>
       <c r="N4" s="3" t="n">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
@@ -765,49 +765,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>금융</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>2021년 4차 대기업ㆍ기금사 대상 비대면 기업홍보 지원(비대면IR) 공고(코로나19 대응)</t>
+          <t>2021년 영국 Unilever 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고(건조제품 포장)</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>코로나19 장기화에 대응하고자 창의ㆍ혁신적 아이디어와 기술을 보유한 유망 중소ㆍ벤처기업을 대상으로 국내 대기업ㆍ기금사 대상 '비대면&amp;#40;온라인&amp;#41; IR'을 통한 투자유치ㆍ보증지원ㆍ업무협력을 지원해 드리는 사업입니다.
-☞ ICT 특화분야 및 비대면 서비스 분야의 중소ㆍ벤처기업
-☞ 투자유치ㆍ보증지원ㆍ업무협력 지원</t>
+          <t>국내 포장 자재 관련 산업의 스타트업 기업을 대상으로 해외시장 진출을 위해 영국 Unilever 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 영국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068617&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071108&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>20210827</v>
+        <v>20211201</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>20210909</v>
+        <v>20211215</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>2021-08-27 ~ 2021-09-09</t>
+          <t>2021-12-01 ~ 2021-12-15</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>정보통신산업진흥원</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>2021.08.30</t>
+          <t>2021.12.06</t>
         </is>
       </c>
       <c r="N5" s="3" t="n">
-        <v>1413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
@@ -829,49 +829,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>내수</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>제17회 부산도시농업박람회 농식품 IR 피칭데이 참여기업 모집 공고</t>
+          <t>2021년 영국 Unilever 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고(비건 식품)</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>농식품 분야 기술기반 창업기업의 발굴 및 투자네트워크 구축을 위하여 '제17회 부산도시농업박람회 농식품 IR 피칭데이' 를 개최하여 창업기업 IR 피칭 및 우수기업 시상을 해드리는 사업입니다.
-☞ 농식품 기술기반 7년 미만의 창업기업
-☞ IR 피칭, 우수기업 시상</t>
+          <t>국내 비건 식품 제조 관련 산업의 스타트업 기업을 대상으로 해외시장 진출을 위해 영국 Unilever 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 영국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068583&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071113&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>20210826</v>
+        <v>20211201</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>20210906</v>
+        <v>20211215</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>2021-08-26 ~ 2021-09-06</t>
+          <t>2021-12-01 ~ 2021-12-15</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>농업기술실용화재단</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -881,11 +881,11 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>2021.08.27</t>
+          <t>2021.12.06</t>
         </is>
       </c>
       <c r="N6" s="3" t="n">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -893,49 +893,49 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>기술</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>2021년 청년농업인 창업기술지원사업 모집 공고</t>
+          <t>2021년 영국 Unilever 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고(재생 가능 포장)</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>청년농업인 창업기업의 기술창업 아이디어에 대한 핵심기술 개념 정립으로 농업기술 창업 활성화를 도모하고자 농촌진흥청 연구실의 역량을 활용한 핵심기술 도출, 사업계획 수립 등 창업사업화 과정에 소요되는 비용을 지원해 드리는 사업입니다.
-☞ 설립 7년이내 청년 농업인 창업기업 또는 예비 창업자&amp;#40;만 18세 이상~만 40세 미만&amp;#41;
-☞ 총 50백만원, 5과제 내외 지원</t>
+          <t>국내 포장 자재 관련 산업의 스타트업 기업을 대상으로 해외시장 진출을 위해 영국 Unilever 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 영국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068604&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071111&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
-        <v>20210820</v>
+        <v>20211201</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>20210910</v>
+        <v>20211215</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>2021-08-20 ~ 2021-09-10</t>
+          <t>2021-12-01 ~ 2021-12-15</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>농업기술실용화재단</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -945,11 +945,11 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>2021.08.27</t>
+          <t>2021.12.06</t>
         </is>
       </c>
       <c r="N7" s="3" t="n">
-        <v>921</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
@@ -966,40 +966,40 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>2021년 창업도약패키지 지원사업(성장촉진 마케팅(민간)) 창업기업 추가모집 공고</t>
+          <t>2021년 사회적기업가 육성사업 We-Star 발굴프로젝트 모집 공고</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>창업도약기&amp;#40;3~7년&amp;#41; 기업의 마케팅 역량강화 및 유통 판로개척을 위하여 유통 전문기관&amp;#40;아마존ㆍ쿠팡ㆍ네이버쇼핑 등&amp;#41;을 활용한 성장촉진 마케팅 프로그램을 지원해 드리는 사업입니다.
-☞ 창업 3 ~ 7년 도약기 기업
-☞ 유통 채널 입점 소요자금, 민간 플랫폼별 입점 교육 등 지원</t>
+          <t>사회적기업가 육성사업 창업기업을 대상으로 지속적인 성장동력 확보와 창업팀 간 협업의 기회제공을 통한 사회적기업 육성을 위해 사업화자금 및 교육, 멘토링 등을 지원해 드리는 사업입니다.
+☞ ‘16년~’20년 사회적기업가 육성사업 출신 창업기업 
+☞ 사업화 지원금&amp;#40;기업 당 10백만원&amp;#41;, 교육 및 멘토링 등 지원</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068559&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071054&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
-        <v>20210826</v>
+        <v>20211201</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>20210915</v>
+        <v>20211215</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>2021-08-26 ~ 2021-09-15</t>
+          <t>2021-12-01 ~ 2021-12-15</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>고용노동부</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>창업진흥원</t>
+          <t>한국사회적기업진흥원</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>2021.08.26</t>
+          <t>2021.12.02</t>
         </is>
       </c>
       <c r="N8" s="3" t="n">
-        <v>6120</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
@@ -1030,40 +1030,40 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>2021년 IBK창공(創工) 대전 1기 혁신창업기업 모집 공고</t>
+          <t>2021년 4차 대전대학교 이노폴리스캠퍼스 사업화지원제작 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>창업기업들의 성공적인 사업모델 및 양질의 일자리를 창출하기 위하여 사무공간, 투자 및 융자, 판로개척 및 마케팅, 컨설팅 등을 지원해 드리는 사업입니다.
-☞ 업력 7년 미만 기업
-☞ 사무공간, 투자 및 융자, 교육 및 멘토링 등 지원</t>
+          <t>창의적 기술 아이디어ㆍ아이템을 보유한 스타트업을 대상으로 사업 성공 가능성 향상 및 창업 활성화를 도모하고자 BIㆍCI 제작, 홍보영상 제작, 시제품 제작 등을 지원해 드리는 사업입니다.
+☞ 2021. 04. 01. 이후 창업한 기술 창업 분야 스타트업
+☞ 최대 300만원 이내 간접지원</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068549&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071043&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
-        <v>20210826</v>
+        <v>20211201</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>20210930</v>
+        <v>20211231</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>2021-08-26 ~ 2021-09-30</t>
+          <t>2021-12-01 ~ 2021-12-31</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>금융위원회</t>
+          <t>과학기술정보통신부</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>IBK기업은행</t>
+          <t>연구개발특구진흥재단</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>2021.08.26</t>
+          <t>2021.12.01</t>
         </is>
       </c>
       <c r="N9" s="3" t="n">
-        <v>1375</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10">
@@ -1085,49 +1085,49 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>수출</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>2021년 업종전환ㆍ재창업 사업화지원 사업 대상자 모집 공고(e-커머스 인큐베이팅 사업)</t>
+          <t>2021년 미국 CVS Health 오픈이노베이션 프로그램 참가 스타트업 기업 모집 공고</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>성공 가능성이 높은 업종전환ㆍ재창업 아이디어를 보유한 폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 안정적인 재기를 위한 사업화 및 친환경ㆍ저탄소 경영 등을 지원해 드리는 사업입니다.
-☞ 폐업&amp;#40;예정&amp;#41;소상공인 중 재창업 또는 업종전환 희망자
-☞ 사업화 지원 국고보조금 최대 10백만원 지원</t>
+          <t>국내 의료 서비스 분야의 스타트업 기업을 대상으로 해외시장 진출을 위해 미국 CVS Health 오픈이노베이션 프로그램 참가를 지원해 드리는 사업입니다.
+☞ 미국 시장 진출을 희망하는 국내 스타트업
+☞ 글로벌기업 측과 교신 및 법률 자문 등 지원</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068541&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070970&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
-        <v>20210825</v>
+        <v>20211125</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>20211231</v>
+        <v>20211214</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>2021-11-25 ~ 2021-12-14</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>2021.08.25</t>
+          <t>2021.11.30</t>
         </is>
       </c>
       <c r="N10" s="3" t="n">
-        <v>2187</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11">
@@ -1149,49 +1149,49 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>수출</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>2021년 KOICA INNOPORT 이노랩A(INNO-Lab A) 모집 공고(개발도상국 사업 진출ㆍ확장 지원)</t>
+          <t>2022년 클라우드혁신센터 클라우드 기반 SW개발환경 지원사업 공고</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>개발도상국 사업 진출ㆍ확장을 희망하는 창업 5년 이내 소셜벤처, &amp;#40;예비&amp;#41;사회적기업, NGO, 기타 법인을 대상으로 현지 특화 사업 구축을 위한 현지 전문가와의 1:1 멘토링, 데모데이 준비, 개발협력 사업 고도화 등을 지원해 드리는 사업입니다.
-☞ 개발도상국 사업 진출ㆍ확장을 희망하는 창업 5년 이내 소셜벤처, &amp;#40;예비&amp;#41;사회적기업, NGO, 기타 법인 중 사업고도화ㆍ정비 필요 기업
-☞ 비즈니스 전문가들 1:1 밀착 컨설팅, 개발협력 사업 고도화 및 스케일업 역량 강화 프로그램 등 지원</t>
+          <t>국내 벤처ㆍ스타트업ㆍ중소 SW기업 등을 대상으로 클라우드 기반 SW개발, 사업화, 글로벌화 등을 통한 지속적인 성장을 지원해 드리는 사업입니다.
+☞ 예비창업자 및 스타트업 기업&amp;#40;3년 미만&amp;#41;, 중소 SW기업
+☞ 기업&amp;#40;클라우드 서비스 바우처, 제품기획 및 사업화 컨설팅&amp;#41;, 개인 개발자&amp;#40;개발 활용도에 따라 컨테이너 제공&amp;#41; 지원</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068540&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070931&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
-        <v>20210819</v>
+        <v>20211123</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>20210907</v>
+        <v>20211231</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>2021-08-19 ~ 2021-09-07</t>
+          <t>2021-11-23 ~ 2021-12-31</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>외교부</t>
+          <t>과학기술정보통신부</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>한국국제협력단</t>
+          <t>정보통신산업진흥원</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>2021.08.25</t>
+          <t>2021.11.25</t>
         </is>
       </c>
       <c r="N11" s="3" t="n">
-        <v>838</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="12">
@@ -1213,49 +1213,49 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>금융</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>2021년 과학기술인 협동조합 공모전(비즈니스 아이디어) 모집 공고</t>
+          <t>2021년 저신용 소상공인 융자 접수 개시 안내 공고</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>과학기술인들이 보유한 기술 전문성을 융합하고 협동조합 운영원리 기반의 우수한 비즈니스 아이디어 발굴ㆍ확산을 도모하고자 '2021년 과학기술인 협동조합 공모전&amp;#40;비즈니스 아이디어&amp;#41;' 참가를 지원해 드리는 사업입니다.
-☞ 과학기술인 협동조합, 개인 및 팀, 법인 등
-☞ 시상 및 상금 수여, 협동조합 설립 및 사업화 등 지원</t>
+          <t>코로나19 확산과 저신용 등으로 시중은행에서 대출이 곤란한 특별피해업종 소상공인에게 초저금리로 긴급자금을 지원해 드리는 사업입니다.
+☞ 버팀목자금플러스를 지원받은 집합금지ㆍ영업제한 및 경영위기&amp;#40;매출20%이상감소&amp;#41; 업종 소상공인
+☞ 개인 또는 법인 당 2천만원 지원</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068139&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070906&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>20210809</v>
+        <v>20211124</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>20210913</v>
+        <v>20211231</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>2021-08-09 ~ 2021-09-13</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>과학기술인협동조합지원센터</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>2021.08.12</t>
+          <t>2021.11.24</t>
         </is>
       </c>
       <c r="N12" s="3" t="n">
-        <v>1014</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="13">
@@ -1277,49 +1277,49 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>기술</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>중소기업 전파 공동엔지니어링랩 운영 지원 사업 공고</t>
+          <t>중소벤처기업부ㆍ벤처기업협회 벤처천억기업 성공요인 분석 논문 공모 공고</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>전파ㆍ방송분야에서 기술적 어려움을 겪고 있는 중소기업 및 창업자를 대상으로 전문가 풀을 활용한 맞춤형 기술개발, 랩 보유 장비를 활용한 시험 및 측정을 지원해 드리는 사업입니다.
-☞ 전파ㆍ방송분야 제품 설계나 구현 등 기술적 어려움을 겪고 있는 중소기업 및 대학창업자
-☞ 맞춤형 애로기술 개발, 랩 보유 장비 활용 시험ㆍ측정 지원</t>
+          <t>기업가정신과 도전정신을 바탕으로 스타트업의 성공 롤모델인 벤처천억기업들의 혁신성장의 성과를 홍보하고 우수성을 알리고자 '벤처천억기업 성공요인 분석' 논문을 공모하고 당선 시 포상 및 상금을 지원해 드리는 사업입니다.
+☞ 전국 대학원&amp;#40;석ㆍ박사 과정&amp;#41; 재학생 및 휴학생
+☞ 중소벤처기업부 장관상 및 상금 시상</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068149&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070883&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>20210812</v>
+        <v>20211123</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>20211231</v>
+        <v>20220211</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>상시 접수</t>
+          <t>2021-11-23 ~ 2022-02-11</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>한국전파진흥협회</t>
+          <t>벤처기업협회</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>2021.08.12</t>
+          <t>2021.11.23</t>
         </is>
       </c>
       <c r="N13" s="3" t="n">
-        <v>1132</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14">
@@ -1341,49 +1341,49 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>내수</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>2021년 농식품 창업 콘테스트 공고</t>
+          <t>2021년 사회적경제 판로지원 통합플랫폼 e-store 36.5 사회적기업 입점사 모집 공고</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>농산업ㆍ식품 분야 창의적인 아이디어를 가진 창업자를 발굴하고자 창업 7년이내 창업자&amp;#40;팀&amp;#41;, 예비창업자를 대상으로 네트워킹 참여, 국내외 투자유치 프로그램 연계 등을 지원해 드리는 사업입니다.
-☞ 창업 7년이내 창업자&amp;#40;팀&amp;#41;, 예비창업자
-☞ 국내외 투자유치 프로그램 연계, 대기업 후원사 사업연계 검토 등 지원</t>
+          <t>사회적경제기업의 제품을 다양한 판로지원을 통해 소비자 및 공급기관에게 판매하도록 온라인 플랫폼에 입점을 지원해드리는 사업입니다. 
+☞ &amp;#40;예비&amp;#41;사회적기업, &amp;#40;사회적&amp;#41;협동조합, 마을기업, 자활기업, 사회적기업가 육성사업 창업팀, 장애인표준사업장
+☞ 사회적경제 판로지원 통합플랫폼 e-store 36.5에 사회적경제기업이 생산하는 상품 등록</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068049&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070678&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>20210806</v>
+        <v>20211110</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>20210903</v>
+        <v>20211231</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>2021-08-06 ~ 2021-09-03</t>
+          <t>2021-11-10 ~ 2021-12-31</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>고용노동부</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>농업기술실용화재단</t>
+          <t>한국사회적기업진흥원</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>2021.08.10</t>
+          <t>2021.11.11</t>
         </is>
       </c>
       <c r="N14" s="3" t="n">
-        <v>1824</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="15">
@@ -1405,39 +1405,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>기술</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>점포철거비 지원(2021년 희망리턴패키지 추경사업 시행 공고)</t>
+          <t>창업ㆍ벤처기업 아이디어 임치제도 시범운영 연장 시행 공고</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 폐업에 소요되는 비용을 최소화하고자 원상복구 및 철거 등 사업정리 비용을 지원해 드리는 사업입니다.
-☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
-☞ 최대 2백만원 한도 내 지원</t>
+          <t>창업기업 및 벤처기업이 보유한 아이디어가 기술개발 또는 사업화 이전에 유출되거나 탈취ㆍ침해되지 않도록 아이디어 임치 수수료를 지원해 드리는 사업입니다.
+☞ 창업기업 또는 벤처기업
+☞ 기업당 연 1회, 아이디어 임치 수수료 5만원 ~ 전액 지원</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067830&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070351&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
-        <v>20210802</v>
+        <v>20211029</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>20211231</v>
+        <v>20221029</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>2021-10-29 ~ 2022-10-29</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>대중소기업농어업협력재단</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>2021.08.03</t>
+          <t>2021.10.29</t>
         </is>
       </c>
       <c r="N15" s="3" t="n">
-        <v>1647</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="16">
@@ -1469,49 +1469,49 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>법률자문ㆍ채무조정(2021년 희망리턴패키지 추경사업 시행 공고)</t>
+          <t>2021년 문화재형 예비사회적기업을 위한 온라인 상담 창구 안내</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 법적권리, 재산권 보호 등 사회안전망 제공을 위하여 전문 변호사의 법률자문 및 파산ㆍ회생 솔루션을 지원해 드리는 사업입니다.
-☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
-☞ 전문변호사의 법률자문 및 개인파산ㆍ회생 지원</t>
+          <t>문화재형 예비사회적기업을 운영하거나 진입을 준비하고 있는 기업&amp;#40;팀&amp;#41;의 진입 상담 및 운영애로 해소를 위해 온라인 상담을 지원하는 사업입니다.
+☞ 문화재형 예비사회적기업
+☞ 문화재형 예비사회적기업 지정 요건 및 절차 안내, 애로사항 해소</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067831&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000069554&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
-        <v>20210802</v>
+        <v>20210929</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>상시 접수</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>문화재청</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>신나는조합</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>2021.08.03</t>
+          <t>2021.09.30</t>
         </is>
       </c>
       <c r="N16" s="3" t="n">
-        <v>1476</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="17">
@@ -1533,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
@@ -1542,23 +1542,23 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>사업정리컨설팅 지원(2021년 희망리턴패키지 추경사업 시행 공고)</t>
+          <t>2021년 업종전환ㆍ재창업 사업화지원 사업 대상자 모집 공고(e-커머스 인큐베이팅 사업)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>폐업&amp;#40;예정&amp;#41; 소상공인의 원활한 사업정리 및 재기 경로를 제공하고자 재기전략, 세무, 부동산, 직무ㆍ직능 등 전문가를 통한 사업정리컨설팅을 지원해 드리는 사업입니다.
-☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
-☞ 폐업 및 재기전략, 세무, 부동산, 직무ㆍ직능 분야 전문가 컨설팅 지원</t>
+          <t>성공 가능성이 높은 업종전환ㆍ재창업 아이디어를 보유한 폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 안정적인 재기를 위한 사업화 및 친환경ㆍ저탄소 경영 등을 지원해 드리는 사업입니다.
+☞ 폐업&amp;#40;예정&amp;#41;소상공인 중 재창업 또는 업종전환 희망자
+☞ 사업화 지원 국고보조금 최대 10백만원 지원</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067846&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068541&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>20210802</v>
+        <v>20210825</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>20211231</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t>2021.08.03</t>
+          <t>2021.08.25</t>
         </is>
       </c>
       <c r="N17" s="3" t="n">
-        <v>1535</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="18">
@@ -1597,49 +1597,49 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>기술</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>2021년 소상공인 폐업점포 재도전 장려금 지원사업 연장 공고(코로나19 극복 지원)</t>
+          <t>중소기업 전파 공동엔지니어링랩 운영 지원 사업 공고</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>코로나19 재확산으로 폐업신고하는 소상공인의 폐업부담 완화 및 취업ㆍ재창업 등 재기여건을 마련할 수 있도록 소상공인 폐업점포 재도전 장려금을 지원해 드리는 사업입니다.
-☞ 2020.8.16. 이후 폐업신고한 소상공인
-☞ 50만원 지원</t>
+          <t>전파ㆍ방송분야에서 기술적 어려움을 겪고 있는 중소기업 및 창업자를 대상으로 전문가 풀을 활용한 맞춤형 기술개발, 랩 보유 장비를 활용한 시험 및 측정을 지원해 드리는 사업입니다.
+☞ 전파ㆍ방송분야 제품 설계나 구현 등 기술적 어려움을 겪고 있는 중소기업 및 대학창업자
+☞ 맞춤형 애로기술 개발, 랩 보유 장비 활용 시험ㆍ측정 지원</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067835&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068149&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
-        <v>20200924</v>
+        <v>20210812</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>상시 접수</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>과학기술정보통신부</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국전파진흥협회</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
@@ -1649,11 +1649,11 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>2021.08.03</t>
+          <t>2021.08.12</t>
         </is>
       </c>
       <c r="N18" s="3" t="n">
-        <v>1981</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="19">
@@ -1661,32 +1661,32 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>소상공인 컨설팅 지원-긴급 경영 컨설팅(2021년 하반기 소상공인 역량강화사업 시행 공고)</t>
+          <t>점포철거비 지원(2021년 희망리턴패키지 추경사업 시행 공고)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>경영애로를 겪고 있는 소상공인 및 예비창업자를 대상으로 소상공인의 경쟁력 강화를 위한 경영ㆍ기술 컨설팅을 지원해 드리는 사업입니다.
-☞ 소상공인 또는 예비창업자
-☞ 컨설팅 비용의 90% 국비 지원</t>
+          <t>폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 폐업에 소요되는 비용을 최소화하고자 원상복구 및 철거 등 사업정리 비용을 지원해 드리는 사업입니다.
+☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
+☞ 최대 2백만원 한도 내 지원</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067170&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067830&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
-        <v>20210712</v>
+        <v>20210802</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>20211231</v>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t>2021.07.13</t>
+          <t>2021.08.03</t>
         </is>
       </c>
       <c r="N19" s="3" t="n">
-        <v>5612</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="20">
@@ -1725,49 +1725,49 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>금융</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>2021년 폐광지역진흥지구 대체산업융자지원사업 계획 수시공고</t>
+          <t>법률자문ㆍ채무조정(2021년 희망리턴패키지 추경사업 시행 공고)</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>폐광지역진흥지구에서 창업 또는 확장하거나 진흥지구 안으로 이전하는 기업 등을 대상으로 시설투자 및 경영 안정자금을 융자 지원해 드리는 사업입니다.
-☞ 폐광지역 진흥지구 내 창업ㆍ확장ㆍ이전기업, 폐광지역 진흥지구 개발사업 시행자, 지정 농공단지 입주 또는 입주예정기업
-☞ 시설자금 30억원 한도, 운전자금 5억원 한도 내 융자 지원</t>
+          <t>폐업&amp;#40;예정&amp;#41; 소상공인을 대상으로 법적권리, 재산권 보호 등 사회안전망 제공을 위하여 전문 변호사의 법률자문 및 파산ㆍ회생 솔루션을 지원해 드리는 사업입니다.
+☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
+☞ 전문변호사의 법률자문 및 개인파산ㆍ회생 지원</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067090&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067831&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
-        <v>20210707</v>
+        <v>20210802</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>20211010</v>
+        <v>20211231</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>2021-07-07 ~ 2021-10-10</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>한국광해관리공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t>2021.07.12</t>
+          <t>2021.08.03</t>
         </is>
       </c>
       <c r="N20" s="3" t="n">
-        <v>1235</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="21">
@@ -1789,32 +1789,32 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>금융</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>2021년 저신용 소상공인 융자 접수 개시 안내</t>
+          <t>사업정리컨설팅 지원(2021년 희망리턴패키지 추경사업 시행 공고)</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>코로나19 확산과 저신용 등으로 시중은행에서 대출이 곤란한 특별피해업종 소상공인에게 초저금리로 긴급자금을 지원해 드리는 사업입니다.
-☞ 버팀목자금플러스를 지원받은 집합금지ㆍ영업제한 및 경영위기&amp;#40;매출20%이상감소&amp;#41; 업종 소상공인
-☞ 업체 당 1천만원</t>
+          <t>폐업&amp;#40;예정&amp;#41; 소상공인의 원활한 사업정리 및 재기 경로를 제공하고자 재기전략, 세무, 부동산, 직무ㆍ직능 등 전문가를 통한 사업정리컨설팅을 지원해 드리는 사업입니다.
+☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
+☞ 폐업 및 재기전략, 세무, 부동산, 직무ㆍ직능 분야 전문가 컨설팅 지원</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066857&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067846&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>20210705</v>
+        <v>20210802</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>20211231</v>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t>2021.07.05</t>
+          <t>2021.08.03</t>
         </is>
       </c>
       <c r="N21" s="3" t="n">
-        <v>8838</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="22">
@@ -1853,49 +1853,49 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>제도</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>재기중소기업인의 체납액 등에 대한 과세특례(2021년 중소기업 조세지원)</t>
+          <t>2021년 소상공인 폐업점포 재도전 장려금 지원사업 연장 공고(코로나19 극복 지원)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>일정한 재기중소기업인의 체납세액에 대하여 체납처분에 따른 재산의 압류나 압류재산의 매각을 유예
-☞ 재창업 자금을 융자받거나 채무조정을 받은 재기중소기업인
-☞ 체납액 납부계획에 따라 3년의 기간까지 국세징수법상 체납처분에 따른 재산의 압류&amp;#40;이미 압류한 재산의 압류 포함&amp;#41;나 압류재산의 매각을 유예</t>
+          <t>코로나19 재확산으로 폐업신고하는 소상공인의 폐업부담 완화 및 취업ㆍ재창업 등 재기여건을 마련할 수 있도록 소상공인 폐업점포 재도전 장려금을 지원해 드리는 사업입니다.
+☞ 2020.8.16. 이후 폐업신고한 소상공인
+☞ 50만원 지원</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066543&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067835&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
-        <v>20210623</v>
+        <v>20200924</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>상시 접수</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>국세청</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="M22" s="3" t="inlineStr">
         <is>
-          <t>2021.06.25</t>
+          <t>2021.08.03</t>
         </is>
       </c>
       <c r="N22" s="3" t="n">
-        <v>2587</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="23">
@@ -1917,49 +1917,49 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>2021년 1차년도 기술혁신 창업기업(예비창업자) 모집 공고(한국해양대학교 이노폴리스캠퍼스)</t>
+          <t>소상공인 컨설팅 지원-긴급 경영 컨설팅(2021년 하반기 소상공인 역량강화사업 시행 공고)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>해양 분야 혁신 기술 창업 아이템 및 기술을 보유한 &amp;#40;예비&amp;#41;창업자 육성을 위하여 투자금, 시제품 제작비, 전문 컨설턴트 1:1 멘토링 등을 지원해 드리는 사업입니다.
-☞ 해양 분야 예비창업자 
-☞ 부산연구개발특구 입주, 액셀러레이팅 프로그램 등 지원</t>
+          <t>경영애로를 겪고 있는 소상공인 및 예비창업자를 대상으로 소상공인의 경쟁력 강화를 위한 경영ㆍ기술 컨설팅을 지원해 드리는 사업입니다.
+☞ 소상공인 또는 예비창업자
+☞ 컨설팅 비용의 90% 국비 지원</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066468&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000067170&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>20210713</v>
+        <v>20210712</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>20210930</v>
+        <v>20211231</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>2021-07-13 ~ 2021-09-30</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>한국해양대학교</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L23" s="3" t="inlineStr">
@@ -1969,11 +1969,11 @@
       </c>
       <c r="M23" s="3" t="inlineStr">
         <is>
-          <t>2021.06.24</t>
+          <t>2021.07.13</t>
         </is>
       </c>
       <c r="N23" s="3" t="n">
-        <v>1901</v>
+        <v>9788</v>
       </c>
     </row>
     <row r="24">
@@ -1981,7 +1981,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
@@ -1990,23 +1990,23 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>증권거래세 면제(2021년 중소기업 조세지원)</t>
+          <t>재기중소기업인의 체납액 등에 대한 과세특례(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>창투사 등이 창업자 등에게 출자하여 취득한 주식등 양도시 증권거래세 면제 
-☞ 창투사, 창투조합, 신기술사업금융업자, 신기술사업투자조합, 한국벤처투자조합 등
-☞ 주식 양도시의 증권거래세 100% 면제</t>
+          <t>일정한 재기중소기업인의 체납세액에 대하여 체납처분에 따른 재산의 압류나 압류재산의 매각을 유예
+☞ 재창업 자금을 융자받거나 채무조정을 받은 재기중소기업인
+☞ 체납액 납부계획에 따라 3년의 기간까지 국세징수법상 체납처분에 따른 재산의 압류&amp;#40;이미 압류한 재산의 압류 포함&amp;#41;나 압류재산의 매각을 유예</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066525&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066543&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
-        <v>20210101</v>
+        <v>20210623</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>20211231</v>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="M24" s="3" t="inlineStr">
         <is>
-          <t>2021.06.24</t>
+          <t>2021.06.25</t>
         </is>
       </c>
       <c r="N24" s="3" t="n">
-        <v>2670</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="25">
@@ -2045,7 +2045,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
@@ -2054,19 +2054,19 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>벤처기업ㆍ창업보육센터에 대한 지방세 과세특례(2021년 중소기업 조세지원)</t>
+          <t>증권거래세 면제(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>벤처기업 및 벤처기업집적시설 등 벤처기업육성을 위해 취득한 부동산에 대한 취득세 및 재산세 감면, 신기술창업집적지역 및 창업보육센터용 부동산과 입주자에 대한 취득세 및 재산세 감면 및 중과세율 적용배제, 벤처기업집적시실 또는 산업기술단지에 입주하는 벤처기업은 중과세율 적용 배제
-☞ 벤처기업이 취득하는 부동산, 벤처기업집적시설 또는 신기술창업집적지역 개발ㆍ조성ㆍ운영을 위한 부동산 등
-☞ 벤처기업이 취득하는 부동산에 대하여 2022년 12월 31일 까지 취득세 37.5%감면 및 재산세 37.5% 경감</t>
+          <t>창투사 등이 창업자 등에게 출자하여 취득한 주식등 양도시 증권거래세 면제 
+☞ 창투사, 창투조합, 신기술사업금융업자, 신기술사업투자조합, 한국벤처투자조합 등
+☞ 주식 양도시의 증권거래세 100% 면제</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066515&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066525&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="N25" s="3" t="n">
-        <v>3191</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="26">
@@ -2109,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
@@ -2118,19 +2118,19 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>창업자금에 대한 증여세 과세특례(2021년 중소기업 조세지원)</t>
+          <t>벤처기업ㆍ창업보육센터에 대한 지방세 과세특례(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>18세 이상 거주자가 중소기업 창업 목적으로 현금 등을 60세 이상의 부모로부터 증여받을 시 5억원 공제 후 10%의 낮은 세율 적용 
-☞ 창업자금을 증여받은 18세 이상의 거주자
-☞  60세 이상의 부모로부터 증여받을 시 5억원 공제 후 10%의 낮은 세율 적용</t>
+          <t>벤처기업 및 벤처기업집적시설 등 벤처기업육성을 위해 취득한 부동산에 대한 취득세 및 재산세 감면, 신기술창업집적지역 및 창업보육센터용 부동산과 입주자에 대한 취득세 및 재산세 감면 및 중과세율 적용배제, 벤처기업집적시실 또는 산업기술단지에 입주하는 벤처기업은 중과세율 적용 배제
+☞ 벤처기업이 취득하는 부동산, 벤처기업집적시설 또는 신기술창업집적지역 개발ㆍ조성ㆍ운영을 위한 부동산 등
+☞ 벤처기업이 취득하는 부동산에 대하여 2022년 12월 31일 까지 취득세 37.5%감면 및 재산세 37.5% 경감</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066513&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066515&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="N26" s="3" t="n">
-        <v>3215</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="27">
@@ -2173,7 +2173,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
@@ -2182,19 +2182,19 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>주식매수선택권 행사이익에 대한 과세특례(2021년 중소기업 조세지원)</t>
+          <t>창업자금에 대한 증여세 과세특례(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>벤처기업 임직원이 벤처기업으로부터 부여받은 주식매수선택권을 행사시 이익은 근로소득 또는 기타소득이 아닌 주식 양도소득으로 과세
-☞ 주식매수선택권을 부여받은 자, 부여한 창업자 등
-☞ 주식매수선택권을 행사&amp;#40;퇴직 후 행사 포함&amp;#41;함으로써 얻은 이익&amp;#40;비과세 이내의 금액은 제외&amp;#41;에 대해 근로소득세 등을 과세하지 아니하고 취득한 주식을 양도시에 양도소득세 과세로 과세 가능</t>
+          <t>18세 이상 거주자가 중소기업 창업 목적으로 현금 등을 60세 이상의 부모로부터 증여받을 시 5억원 공제 후 10%의 낮은 세율 적용 
+☞ 창업자금을 증여받은 18세 이상의 거주자
+☞  60세 이상의 부모로부터 증여받을 시 5억원 공제 후 10%의 낮은 세율 적용</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066440&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066513&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -2225,11 +2225,11 @@
       </c>
       <c r="M27" s="3" t="inlineStr">
         <is>
-          <t>2021.06.23</t>
+          <t>2021.06.24</t>
         </is>
       </c>
       <c r="N27" s="3" t="n">
-        <v>2297</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="28">
@@ -2237,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
@@ -2246,19 +2246,19 @@
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>엔젤투자 등에 대한 소득공제(2021년 중소기업 조세지원)</t>
+          <t>주식매수선택권 행사이익에 대한 과세특례(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>중소기업창업투자조합 등에 투자한 금액의 일부를 2년내 종합소득금액에서 공제
-☞ 중소기업창업투자조합 등에 투자자
-☞ 투자한 금액의 일부를 투자일이 속하는 과세연도 부터 2년내에 투자자가 선택하는 과세연도의 종합소득금액에서 공제</t>
+          <t>벤처기업 임직원이 벤처기업으로부터 부여받은 주식매수선택권을 행사시 이익은 근로소득 또는 기타소득이 아닌 주식 양도소득으로 과세
+☞ 주식매수선택권을 부여받은 자, 부여한 창업자 등
+☞ 주식매수선택권을 행사&amp;#40;퇴직 후 행사 포함&amp;#41;함으로써 얻은 이익&amp;#40;비과세 이내의 금액은 제외&amp;#41;에 대해 근로소득세 등을 과세하지 아니하고 취득한 주식을 양도시에 양도소득세 과세로 과세 가능</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066461&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066440&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="N28" s="3" t="n">
-        <v>2829</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="29">
@@ -2301,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
@@ -2310,19 +2310,19 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>창업중소기업 등에 대한 세액감면(2021년 중소기업 조세지원)</t>
+          <t>엔젤투자 등에 대한 소득공제(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>창업 후&amp;#40;벤처기업 확인 후&amp;#41; 법인세&amp;#40;소득세&amp;#41;, 취득세, 재산세, 등록면허세를 일정기간동안 일정비율 감면
-☞ 창업중소기업, 창업벤처중소기업, 창업보육센터사업자, 에너지신기술기업
-☞ 법인세ㆍ소득세, 취득세, 재산세, 등록면허세 일정기간동안 일정비율 감면</t>
+          <t>중소기업창업투자조합 등에 투자한 금액의 일부를 2년내 종합소득금액에서 공제
+☞ 중소기업창업투자조합 등에 투자자
+☞ 투자한 금액의 일부를 투자일이 속하는 과세연도 부터 2년내에 투자자가 선택하는 과세연도의 종합소득금액에서 공제</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066320&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066461&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -2353,11 +2353,11 @@
       </c>
       <c r="M29" s="3" t="inlineStr">
         <is>
-          <t>2021.06.21</t>
+          <t>2021.06.23</t>
         </is>
       </c>
       <c r="N29" s="3" t="n">
-        <v>4313</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="30">
@@ -2365,32 +2365,32 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>동반성장</t>
+          <t>제도</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>2021년 기업자율형 상생프로그램 시행계획 공고</t>
+          <t>창업중소기업 등에 대한 세액감면(2021년 중소기업 조세지원)</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>창업ㆍ벤처기업의 성장촉진 및 글로벌 진출을 위해 출연기업&amp;#40;대ㆍ중견기업 및 공공기관&amp;#41;이 창업생태계 구축을 위한 상생협력기금을 조성하고 기금 용도에 부합하는 사업을 자율적으로 기획하여 창업 및 벤처기업 육성을 지원합니다.
-☞ 창업 및 벤처기업
-☞ 사업화자금, 기업역량강화 등 출연기업별 특성화 사업 지원</t>
+          <t>창업 후&amp;#40;벤처기업 확인 후&amp;#41; 법인세&amp;#40;소득세&amp;#41;, 취득세, 재산세, 등록면허세를 일정기간동안 일정비율 감면
+☞ 창업중소기업, 창업벤처중소기업, 창업보육센터사업자, 에너지신기술기업
+☞ 법인세ㆍ소득세, 취득세, 재산세, 등록면허세 일정기간동안 일정비율 감면</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064930&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066320&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>20210406</v>
+        <v>20210101</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>20211231</v>
@@ -2402,12 +2402,12 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>국세청</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>대중소기업농어업협력재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
@@ -2417,11 +2417,11 @@
       </c>
       <c r="M30" s="3" t="inlineStr">
         <is>
-          <t>2021.05.13</t>
+          <t>2021.06.21</t>
         </is>
       </c>
       <c r="N30" s="3" t="n">
-        <v>4998</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="31">
@@ -2429,39 +2429,39 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>동반성장</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>2021년 생활혁신형 창업지원사업 연계자금(성공불융자) 개시 안내</t>
+          <t>2021년 기업자율형 상생프로그램 시행계획 공고</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>생활주변 사업아이템에 참신한 아이디어를 적용하여 창업화할 수 있도록 아이디어를 선정, 사업화를 위한 자금을 성공불융자로 연계하여 지원해 드리는 사업입니다.
-☞ '21년 생활혁신형 창업지원사업 선정자 중 창업자
-☞ 기업 당 최대 2천만원 이내</t>
+          <t>창업ㆍ벤처기업의 성장촉진 및 글로벌 진출을 위해 출연기업&amp;#40;대ㆍ중견기업 및 공공기관&amp;#41;이 창업생태계 구축을 위한 상생협력기금을 조성하고 기금 용도에 부합하는 사업을 자율적으로 기획하여 창업 및 벤처기업 육성을 지원합니다.
+☞ 창업 및 벤처기업
+☞ 사업화자금, 기업역량강화 등 출연기업별 특성화 사업 지원</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064754&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064930&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
-        <v>20210517</v>
+        <v>20210406</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>상시 접수</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>대중소기업농어업협력재단</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
@@ -2481,11 +2481,11 @@
       </c>
       <c r="M31" s="3" t="inlineStr">
         <is>
-          <t>2021.05.10</t>
+          <t>2021.05.13</t>
         </is>
       </c>
       <c r="N31" s="3" t="n">
-        <v>6647</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="32">
@@ -2493,32 +2493,32 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>2021년 폐업(예정) 소상공인 법률자문 및 개인파산ㆍ개인회생 지원 공고</t>
+          <t>2021년 생활혁신형 창업지원사업 연계자금(성공불융자) 개시 안내</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>폐업&amp;#40;예정&amp;#41; 소상공인의 법적 권리 및 재산권을 보호하고, 채무부담을 경감하여 신속한 재기를 도모하기 위해 법률자문 및 채무조정&amp;#40;개인파산ㆍ개인회생&amp;#41; 상담을 지원해 드리는 사업입니다.
-☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
-☞ 법률자문 서비스 및 전문 변호사의 개인파산ㆍ면책, 개인회생 상담 등 지원</t>
+          <t>생활주변 사업아이템에 참신한 아이디어를 적용하여 창업화할 수 있도록 아이디어를 선정, 사업화를 위한 자금을 성공불융자로 연계하여 지원해 드리는 사업입니다.
+☞ '21년 생활혁신형 창업지원사업 선정자 중 창업자
+☞ 기업 당 최대 2천만원 이내</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064293&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064754&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>20210426</v>
+        <v>20210517</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>20211231</v>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="M32" s="3" t="inlineStr">
         <is>
-          <t>2021.04.27</t>
+          <t>2021.05.10</t>
         </is>
       </c>
       <c r="N32" s="3" t="n">
-        <v>4417</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="33">
@@ -2557,7 +2557,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
@@ -2566,30 +2566,30 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>2021년 중소기업 혁신바우처 사업(컨설팅) 지원계획 공고</t>
+          <t>2021년 폐업(예정) 소상공인 법률자문 및 개인파산ㆍ개인회생 지원 공고</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>기업 성장 가능성 높은 중소기업의 경쟁력 강화를 위하여 진단을 통한 기업 특성별 맞춤형 컨설팅을 지원해 드리는 사업입니다. 
-☞ 중소기업기본법에 따른 중소기업
-☞ 컨설팅 분야(경영기술 전략, 스마트공장추진전략, 규제대응 등) 지원</t>
+          <t>폐업&amp;#40;예정&amp;#41; 소상공인의 법적 권리 및 재산권을 보호하고, 채무부담을 경감하여 신속한 재기를 도모하기 위해 법률자문 및 채무조정&amp;#40;개인파산ㆍ개인회생&amp;#41; 상담을 지원해 드리는 사업입니다.
+☞ 사업 운영기간 60일 이상 폐업&amp;#40;예정&amp;#41; 소상공인
+☞ 법률자문 서비스 및 전문 변호사의 개인파산ㆍ면책, 개인회생 상담 등 지원</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000062874&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064293&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>20210324</v>
+        <v>20210426</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>추후 공지</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2599,21 +2599,21 @@
       </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
         <is>
-          <t>2021.03.25</t>
+          <t>2021.04.27</t>
         </is>
       </c>
       <c r="N33" s="3" t="n">
-        <v>11844</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="34">
@@ -2621,63 +2621,65 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>기술</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>2021년 농식품 기술평가 지원사업 참여업체 모집 공고</t>
+          <t>2021년 중소기업 혁신바우처 사업(컨설팅) 지원계획 공고</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>농식품 기술기반 유망 벤처ㆍ창업기업의 기술금융 여건 마련 및 혁신 성장 촉진을 위하여 농식품 분야 특허기술 및 품종보호권에 대한 기술평가 수수료를 지원해 드리는 사업입니다.
-☞ 농식품 분야 우수 기술을 보유한 벤처ㆍ창업 기업
-☞ 건당 최대 1,350만원 지원</t>
+          <t>기업 성장 가능성 높은 중소기업의 경쟁력 강화를 위하여 진단을 통한 기업 특성별 맞춤형 컨설팅을 지원해 드리는 사업입니다. 
++☞ 중소기업기본법에 따른 중소기업
++☞ 컨설팅 분야(경영기술 전략, 스마트공장추진전략, 규제대응 등) 지원</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000062578&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000062874&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>20210316</v>
+        <v>20210324</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>추후 공지</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="K34" s="3" t="inlineStr">
         <is>
-          <t>농업기술실용화재단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="L34" s="3" t="inlineStr">
         <is>
-          <t>농업기술실용화재단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="M34" s="3" t="inlineStr">
         <is>
-          <t>2021.03.18</t>
+          <t>2021.03.25</t>
         </is>
       </c>
       <c r="N34" s="3" t="n">
-        <v>5853</v>
+        <v>16147</v>
       </c>
     </row>
     <row r="35">
@@ -2685,7 +2687,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
@@ -2694,54 +2696,56 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>2021년 보건산업 혁신창업 및 중소벤처기업 지원사업 통합 공고</t>
+          <t>2021년 농식품 기술평가 지원사업 참여업체 모집 공고</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>보건산업분야 혁신창업 및 기술사업화 활성화를 위하여 제약ㆍ바이오, 의료기기 등 보건산업 특화 중소기업 글로벌 기술사업화를 지원해 드리는 사업입니다.
-☞ 보건산업분야 기업 및 기관
-☞ 보건산업분야 창업ㆍ기술사업화를 위한 제반 지원</t>
+          <t>농식품 기술기반 유망 벤처ㆍ창업기업의 기술금융 여건 마련 및 혁신 성장 촉진을 위하여 농식품 분야 특허기술 및 품종보호권에 대한 기술평가 수수료를 지원해 드리는 사업입니다.
++☞ 농식품 분야 우수 기술을 보유한 벤처ㆍ창업 기업
++☞ 건당 최대 1,350만원 지원</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000061342&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000062578&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20210101</v>
+        <v>20210316</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>세부사업별 상이</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>보건복지부</t>
+          <t>농림축산식품부</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>한국보건산업진흥원</t>
+          <t>농업기술실용화재단</t>
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr">
         <is>
-          <t>한국보건산업진흥원</t>
+          <t>농업기술실용화재단</t>
         </is>
       </c>
       <c r="M35" s="3" t="inlineStr">
         <is>
-          <t>2021.02.17</t>
+          <t>2021.03.18</t>
         </is>
       </c>
       <c r="N35" s="3" t="n">
-        <v>7467</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="36">
@@ -2749,63 +2753,65 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>기술</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>폐업이후-취업지원(2021년 희망리턴패키지 사업 시행 공고)</t>
+          <t>2021년 보건산업 혁신창업 및 중소벤처기업 지원사업 통합 공고</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>폐업(예정) 소상공인이 신속하게 사업을 정리하고 취업ㆍ창업을 통해 안정적으로 재기할 수 있도록 취업교육 및 전직장려수당을 지원해 드리는 사업입니다.
-☞  폐업(예정) 소상공인
-☞ 취업교육 및 전직장려수당 지원</t>
+          <t>보건산업분야 혁신창업 및 기술사업화 활성화를 위하여 제약ㆍ바이오, 의료기기 등 보건산업 특화 중소기업 글로벌 기술사업화를 지원해 드리는 사업입니다.
++☞ 보건산업분야 기업 및 기관
++☞ 보건산업분야 창업ㆍ기술사업화를 위한 제반 지원</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000061230&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000061342&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20210210</v>
+        <v>20210101</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20211130</v>
+        <v>20211231</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>세부사업별 상이</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>보건복지부</t>
         </is>
       </c>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국보건산업진흥원</t>
         </is>
       </c>
       <c r="L36" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국보건산업진흥원</t>
         </is>
       </c>
       <c r="M36" s="3" t="inlineStr">
         <is>
-          <t>2021.02.15</t>
+          <t>2021.02.17</t>
         </is>
       </c>
       <c r="N36" s="3" t="n">
-        <v>7951</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="37">
@@ -2813,7 +2819,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
@@ -2828,7 +2834,9 @@
       <c r="E37" s="3" t="inlineStr">
         <is>
           <t>폐업(예정) 소상공인이 신속하게 사업을 정리하고 취업ㆍ창업을 통해 안정적으로 재기할 수 있도록 재창업교육 및 멘토링, 업종전환ㆍ재창업 사업화를 지원해 드리는 사업입니다.
+ ☞  폐업(예정) 소상공인
+ ☞ 재창업교육 및 멘토링, 업종전환ㆍ재창업 사업화 지원</t>
         </is>
       </c>
@@ -2869,7 +2877,7 @@
         </is>
       </c>
       <c r="N37" s="3" t="n">
-        <v>9023</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="38">
@@ -2877,7 +2885,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
@@ -2892,7 +2900,9 @@
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>소상공인의 안정적 성장 및 경영을 위하여 '2021년 중소벤처기업부 소관 소상공인 정책자금 융자계획'을 공고합니다.
+ ☞ 「소상공인기본법」 제2조 및 같은 법 시행령 제3조의 소상공인
+ ☞7천만원까지 융자 지원</t>
         </is>
       </c>
@@ -2933,7 +2943,7 @@
         </is>
       </c>
       <c r="N38" s="3" t="n">
-        <v>13430</v>
+        <v>17309</v>
       </c>
     </row>
     <row r="39">
@@ -2941,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
@@ -2956,7 +2966,9 @@
       <c r="E39" s="3" t="inlineStr">
         <is>
           <t>소상공인의 자생력 제고 및 생업안전망 구축을 위한 자금을 지원해 드리는 사업입니다.
+ ☞ 일반 소상공인 및 창업 1년 미만의 소상공인
+ ☞ 기업당 7천만원 융자 지원</t>
         </is>
       </c>
@@ -2997,7 +3009,7 @@
         </is>
       </c>
       <c r="N39" s="3" t="n">
-        <v>12822</v>
+        <v>16759</v>
       </c>
     </row>
     <row r="40">
@@ -3005,7 +3017,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
@@ -3020,7 +3032,9 @@
       <c r="E40" s="3" t="inlineStr">
         <is>
           <t>국내 ICT 창업ㆍ벤처 생태계 활성화 및 글로벌 스타기업 배출을 위하여 ICT 분야 유망 창업ㆍ벤처기업 대상으로 창업 예비단계부터 해외 시장진출까지 기업 성장단계별로 지원해 드리는 사업입니다.
+ ☞ ICT 분야 유망 창업ㆍ벤처기업 등 대상
+ ☞ 2021년 1,563억원 규모</t>
         </is>
       </c>
@@ -3061,7 +3075,7 @@
         </is>
       </c>
       <c r="N40" s="3" t="n">
-        <v>10065</v>
+        <v>13790</v>
       </c>
     </row>
     <row r="41">
@@ -3069,7 +3083,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
@@ -3083,8 +3097,10 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>여성창업 활성화와 여성기업 경쟁력 강화를 위해 창업공간 및 멘토링 제공, 공공구매 실무교육, 여성기업제품 공공 구매 홍보 등을 지원해 드리는 사업입니다.
+          <t>여성창업 활성화와 여성기업 경쟁력 강화를 위해 창업공간 및 멘토링 제공, 공공구매 실무교육, 여성기업제품 공공 구매 홍보 등을 지원해 드리는 사업입니다.
+ ☞ 여성 (예비) 창업자 및 여성기업인 등
+ ☞ 창업공간 및 멘토링 제공, 공공구매 실무교육, 여성기업제품 공공 구매 홍보 등 지원</t>
         </is>
       </c>
@@ -3125,7 +3141,7 @@
         </is>
       </c>
       <c r="N41" s="3" t="n">
-        <v>14009</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="42">
@@ -3133,7 +3149,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
@@ -3148,7 +3164,9 @@
       <c r="E42" s="3" t="inlineStr">
         <is>
           <t>예비창업가 및 창업기업의 성공적인 창업과 지속적인 성장을 도모하기 위하여 '2021년 창업지원 시행계획'을 공고합니다.
+ ☞ 예비창업가 및 창업기업
+ ☞ 31개 사업, 8,120억원 지원</t>
         </is>
       </c>
@@ -3189,7 +3207,7 @@
         </is>
       </c>
       <c r="N42" s="3" t="n">
-        <v>15161</v>
+        <v>19411</v>
       </c>
     </row>
     <row r="43">
@@ -3197,7 +3215,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
@@ -3212,7 +3230,9 @@
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>세계 경제 주요 교역거점에 수출인큐베이터를 설치하여 현지 진출 초기 중소기업의 조기 정착을 지원해 드리는 사업입니다.
+ ☞ 해외시장진출 희망 중소벤처기업
+ ☞ 사무공간 및 공동시설 제공, 마케팅, 정보제공, 조기정착 등 지원</t>
         </is>
       </c>
@@ -3253,7 +3273,7 @@
         </is>
       </c>
       <c r="N43" s="3" t="n">
-        <v>7884</v>
+        <v>11130</v>
       </c>
     </row>
     <row r="44">
@@ -3261,7 +3281,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
@@ -3276,7 +3296,9 @@
       <c r="E44" s="3" t="inlineStr">
         <is>
           <t>예비창업자, 창업기업 등의 성공적인 창업과 지속적인 성장을 위해 ‘2021년중기부 창업지원사업’을 통합 공고합니다.
+ ☞ 예비창업자, 창업기업 등
+ ☞ 행사ㆍ네트워크 14개 사업 지원</t>
         </is>
       </c>
@@ -3317,7 +3339,7 @@
         </is>
       </c>
       <c r="N44" s="3" t="n">
-        <v>11460</v>
+        <v>14936</v>
       </c>
     </row>
     <row r="45">
@@ -3325,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
@@ -3340,7 +3362,9 @@
       <c r="E45" s="3" t="inlineStr">
         <is>
           <t>예비창업자, 창업기업 등의 성공적인 창업과 지속적인 성장을 위해 ‘2021년중기부 창업지원사업’을 통합 공고합니다.
+ ☞ 예비창업자, 창업기업 등
+ ☞ 시설ㆍ공간ㆍ보육 46개 사업 지원</t>
         </is>
       </c>
@@ -3381,7 +3405,7 @@
         </is>
       </c>
       <c r="N45" s="3" t="n">
-        <v>13140</v>
+        <v>17226</v>
       </c>
     </row>
     <row r="46">
@@ -3389,39 +3413,41 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>금융</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>창업교육 사업(2021년 정부 창업지원사업 통합 공고)</t>
+          <t>소상공인 창업ㆍ성장ㆍ재기 지원(2021년 소상공인 지원사업 통합 공고)</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>예비창업자, 창업기업 등의 성공적인 창업과 지속적인 성장을 위해 ‘2021년중기부 창업지원사업’을 통합 공고합니다.
-☞ 예비창업자, 창업기업 등
-☞ 창업교육 15개 사업 지원</t>
+          <t>소상공인 예비 창업자 및 재기 창업자를 대상으로 사업화 자금, 온라인 판로개척, 소상공인 역량강화 등에 필요한 자금을 지원해 드리는 사업입니다.
++☞ 소상공인, 예비창업자, 중소유통단체, (예비)협동조합 등
++☞ 소상공인 창업, 성장, 재기 지원</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059871&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059842&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
-        <v>20210105</v>
+        <v>20210101</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>20210930</v>
+        <v>20211231</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>세부사업별 상이</t>
+          <t>추후 공지</t>
         </is>
       </c>
       <c r="J46" s="3" t="inlineStr">
@@ -3431,21 +3457,21 @@
       </c>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>창업진흥원</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="L46" s="3" t="inlineStr">
         <is>
-          <t>창업진흥원</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="M46" s="3" t="inlineStr">
         <is>
-          <t>2021.01.05</t>
+          <t>2020.12.31</t>
         </is>
       </c>
       <c r="N46" s="3" t="n">
-        <v>11729</v>
+        <v>25442</v>
       </c>
     </row>
     <row r="47">
@@ -3453,39 +3479,41 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>금융</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>멘토링ㆍ컨설팅 사업(2021년 정부 창업지원사업 통합 공고)</t>
+          <t>혁신창업사업화자금-개발기술사업화자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>예비창업자, 창업기업 등의 성공적인 창업과 지속적인 성장을 위해 ‘2021년중기부 창업지원사업’을 통합 공고합니다.
-☞ 예비창업자, 창업기업 등
-☞ 멘토링ㆍ컨설팅 19개 사업 지원</t>
+          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
++☞ 지원대상에 해당하는 기술을 사업화하고자 하는 중소기업
++☞ 연간 30억원 이내(운전자금 연간 5억원 이내) 융자 지원</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059892&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059726&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>20210105</v>
+        <v>20201224</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>20211130</v>
+        <v>20211231</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
-          <t>세부사업별 상이</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J47" s="3" t="inlineStr">
@@ -3495,21 +3523,21 @@
       </c>
       <c r="K47" s="3" t="inlineStr">
         <is>
-          <t>창업진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="L47" s="3" t="inlineStr">
         <is>
-          <t>창업진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="M47" s="3" t="inlineStr">
         <is>
-          <t>2021.01.05</t>
+          <t>2020.12.24</t>
         </is>
       </c>
       <c r="N47" s="3" t="n">
-        <v>11203</v>
+        <v>21439</v>
       </c>
     </row>
     <row r="48">
@@ -3517,7 +3545,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
@@ -3526,30 +3554,32 @@
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>소상공인 창업ㆍ성장ㆍ재기 지원(2021년 소상공인 지원사업 통합 공고)</t>
+          <t>혁신창업사업화자금-창업기반지원자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>소상공인 예비 창업자 및 재기 창업자를 대상으로 사업화 자금, 온라인 판로개척, 소상공인 역량강화 등에 필요한 자금을 지원해 드리는 사업입니다.
-☞ 소상공인, 예비창업자, 중소유통단체, (예비)협동조합 등
-☞ 소상공인 창업, 성장, 재기 지원</t>
+          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하고자 창업자금을 지원해 드리는 사업입니다.
++☞ 업력 7년 미만인 중소기업 또는 중소기업
++☞ 지원대상별 최대 연간 60억원 이내 지원</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059842&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059723&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
-        <v>20210101</v>
+        <v>20201224</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>20211231</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>추후 공지</t>
+          <t>예산 소진시까지</t>
         </is>
       </c>
       <c r="J48" s="3" t="inlineStr">
@@ -3559,21 +3589,21 @@
       </c>
       <c r="K48" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="L48" s="3" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="M48" s="3" t="inlineStr">
         <is>
-          <t>2020.12.31</t>
+          <t>2020.12.24</t>
         </is>
       </c>
       <c r="N48" s="3" t="n">
-        <v>21505</v>
+        <v>21082</v>
       </c>
     </row>
     <row r="49">
@@ -3581,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
@@ -3590,19 +3620,21 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-개발기술사업화자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
+          <t>재도약지원자금-재창업자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
-☞ 지원대상에 해당하는 기술을 사업화하고자 하는 중소기업
-☞ 연간 30억원 이내(운전자금 연간 5억원 이내) 융자 지원</t>
+          <t>사업전환, 구조조정, 재창업 지원을 통해 재도약과 경영정상화를 위한 사회적 기반을 조성하고자 자금을 지원해 드리는 사업입니다.
++☞ 사업실패로 저신용 상태 혹은 자금조달에 애로를 겪고 있는 기업인
++☞ 연간 60억 이내 지원</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059726&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059730&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -3637,7 +3669,7 @@
         </is>
       </c>
       <c r="N49" s="3" t="n">
-        <v>17133</v>
+        <v>13981</v>
       </c>
     </row>
     <row r="50">
@@ -3645,7 +3677,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
@@ -3654,19 +3686,21 @@
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-창업기반지원자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
+          <t>혁신창업사업화자금-고성장촉진자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하고자 창업자금을 지원해 드리는 사업입니다.
-☞ 업력 7년 미만인 중소기업 또는 중소기업
-☞ 지원대상별 최대 연간 60억원 이내 지원</t>
+          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
++☞ 상시근로자 10인 이상인 기업으로 업력이 3년 이상 10년 미만인 중소기업
++☞ 연간 100억원 이내(운전자금은 연간 10억원 이내) 융자 지원</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059723&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059725&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -3701,7 +3735,7 @@
         </is>
       </c>
       <c r="N50" s="3" t="n">
-        <v>16509</v>
+        <v>12864</v>
       </c>
     </row>
     <row r="51">
@@ -3709,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
@@ -3718,19 +3752,21 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>재도약지원자금-재창업자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
+          <t>혁신창업사업화자금-미래기술육성자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>사업전환, 구조조정, 재창업 지원을 통해 재도약과 경영정상화를 위한 사회적 기반을 조성하고자 자금을 지원해 드리는 사업입니다.
-☞ 사업실패로 저신용 상태 혹은 자금조달에 애로를 겪고 있는 기업인
-☞ 연간 60억 이내 지원</t>
+          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
++☞ 혁신성장분야를 영위하는 기업으로 업력이 3년 이상 10년 미만인 중소기업
++☞ 연간 100억원 이내(운전자금은 연간 10억원 이내) 지원</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059730&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059724&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
@@ -3765,249 +3801,249 @@
         </is>
       </c>
       <c r="N51" s="3" t="n">
-        <v>10559</v>
+        <v>12886</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>금융</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-고성장촉진자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
+          <t>2021년 지랭크챌린지서울상 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
-☞ 상시근로자 10인 이상인 기업으로 업력이 3년 이상 10년 미만인 중소기업
-☞ 연간 100억원 이내(운전자금은 연간 10억원 이내) 융자 지원</t>
+          <t>국산 게임 창작 생태계를 활성화 및 성공사례 창출을 위하여 우수한 인디게임에 대한 시상과 상금, 미디어 홍보, 글로벌 비즈매칭 등을 지원해 드리는 사업입니다.
+☞ 게임출시작을 보유한 국내 게임스타트업 및 개발자
+☞ 선정기업 당 상금 200만원 지급</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059725&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071068&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
-        <v>20201224</v>
+        <v>20211202</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>20211231</v>
+        <v>20211208</v>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>2021-12-02 ~ 2021-12-08</t>
         </is>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="K52" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>서울산업진흥원</t>
         </is>
       </c>
       <c r="L52" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="M52" s="3" t="inlineStr">
         <is>
-          <t>2020.12.24</t>
+          <t>2021.12.03</t>
         </is>
       </c>
       <c r="N52" s="3" t="n">
-        <v>9663</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>금융</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-미래기술육성자금(2021년 중소벤처기업부 소관 중소기업 정책자금 융자계획)</t>
+          <t>2021년 강원 DMZ 테마 관광 벤처 육성사업 모집 재공고</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>기술력과 사업성은 우수하나 자금이 부족한 중소ㆍ벤처기업의 창업을 활성화하고 고용창출을 도모하기 위해 창업자금을 지원합니다.
-☞ 혁신성장분야를 영위하는 기업으로 업력이 3년 이상 10년 미만인 중소기업
-☞ 연간 100억원 이내(운전자금은 연간 10억원 이내) 지원</t>
+          <t>국내 관광 벤처기업을 체계적으로 발굴ㆍ육성하고, DMZ관광 활성화 및 지역 소득 증대를 위해 사업화 보조금 및 컨설팅, 네트워킹, 홍보 등을 지원해 드리는 사업입니다.
+☞ 전국 관광콘텐츠 관련 예비 및 초기 창업자&amp;#40;5년 미만&amp;#41;
+☞ 사업화 보조금&amp;#40;4천만원 이내&amp;#41;, 컨설팅, 홍보 등 지원</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000059724&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071027&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
-        <v>20201224</v>
+        <v>20211201</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>20211231</v>
+        <v>20211210</v>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>2021-12-01 ~ 2021-12-10</t>
         </is>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="K53" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>강원도경제진흥원</t>
         </is>
       </c>
       <c r="L53" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="M53" s="3" t="inlineStr">
         <is>
-          <t>2020.12.24</t>
+          <t>2021.12.02</t>
         </is>
       </c>
       <c r="N53" s="3" t="n">
-        <v>9657</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>기술</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>2020년 창업ㆍ벤처기업 아이디어 임치제도 시범운영 시행 공고(기술자료 임치제도)</t>
+          <t>2021년 광명시 에코 창업경진대회 모집 공고</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>창업기업 및 벤처기업이 보유한 아이디어가 기술개발 또는 사업화 이전에 유출되거나 탈취ㆍ침해되지 않도록 아이디어 임치 수수료를 지원해 드리는 사업입니다.
-☞ 창업기업 또는 벤처기업
-☞ 기업당 연 1회, 아이디어 임치 수수료 5만원 ~ 전액 지원</t>
+          <t>에코콘텐츠를 활용한 우수 아이디어ㆍ시제품 단계의 에코디자인ㆍ콘텐츠 융복합 제품 및 서비스를 보유하고 있는 기업 또는 일반인을 대상으로 시상 및 창업 교육, 멘토링을 지원해 드리는 사업입니다.
+☞ 일반인, 예비창업자 또는 창업 7년 이내 스타트업
+☞ 총상금 2,400만원 지원</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000058948&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071049&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20201030</v>
+        <v>20211115</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20211029</v>
+        <v>20211217</v>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t>2020-10-30 ~ 2021-10-29</t>
+          <t>2021-11-15 ~ 2021-12-17</t>
         </is>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K54" s="3" t="inlineStr">
         <is>
-          <t>대중소기업농어업협력재단</t>
+          <t>경기콘텐츠진흥원</t>
         </is>
       </c>
       <c r="L54" s="3" t="inlineStr">
         <is>
-          <t>대중소기업농어업협력재단</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="M54" s="3" t="inlineStr">
         <is>
-          <t>2020.11.02</t>
+          <t>2021.12.02</t>
         </is>
       </c>
       <c r="N54" s="3" t="n">
-        <v>4705</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>내수</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>2021년 온라인 메디컬(Medical) 해커톤 참여기업 모집 공고</t>
+          <t>2021년 광명시 에코 콘텐츠 크리에이터 지원사업 모집 공고</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>코로나19의 위기를 극복하기 위해 신규 비즈니스 모델을 가진 &amp;#40;예비&amp;#41;창업자를 발굴 및 육성하고, 메디컬 분야의 지속적인 발전을 도모하고자 '2021년 온라인 메디컬&amp;#40;Medical&amp;#41; 해커톤' 을 개최하여 의료ㆍ사회 문제해결 아이템 발표 및 시상금을 지원해 드리는 사업입니다.
-☞ 의료산업 분야의 우수 아이디어를 보유하고 있는 창업 7년 이하 스타트업·벤처 및 예비창업자
-☞ 최우수상&amp;#40;500만원&amp;#41;, 우수상&amp;#40;200만원&amp;#41; 등 시상금 지원</t>
+          <t>환경을 생각하는 콘텐츠 사업모델을 보유한 예비창업자ㆍ스타트업을 대상으로 창업 성공률 제고를 위해 기업 니즈 진단 및 분석, 창업 교육 등을 지원해 드리는 사업입니다.
+☞ 환경을 생각하는 콘텐츠 사업모델을 보유한 예비창업자 또는 창업 7년 이내 스타트업
+☞ 총 상금 3,600만원 시상</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068769&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071032&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
-        <v>20210901</v>
+        <v>20211115</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>20210930</v>
+        <v>20211217</v>
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>2021-09-01 ~ 2021-09-30</t>
+          <t>2021-11-15 ~ 2021-12-17</t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>울산창조경제혁신센터</t>
+          <t>경기콘텐츠진흥원</t>
         </is>
       </c>
       <c r="L55" s="3" t="inlineStr">
@@ -4017,19 +4053,19 @@
       </c>
       <c r="M55" s="3" t="inlineStr">
         <is>
-          <t>2021.09.02</t>
+          <t>2021.12.02</t>
         </is>
       </c>
       <c r="N55" s="3" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
@@ -4038,40 +4074,40 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>경남창조경제혁신센터 CORN 프로젝트 액셀러레이팅 사업 참여기업 모집 공고</t>
+          <t>2022년 Dream Play with GCCEI(LG디스플레이 오픈이노베이션 사업) 모집 공고</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>창업의지가 높은 &amp;#40;예비&amp;#41;창업자를 대상으로 아이디어 사업화검증, 제품 및 사업개발을 위해 전문멘토 맞춤형 멘토링, 입주공간, 투자연결 등 액셀러레이팅을 지원해 드리는 사업입니다.
-☞ 창업 7년 이내의 아이디어를 보유한 &amp;#40;예비&amp;#41;창업자
-☞ MVP 제작, 전문멘토 맞춤형 멘토링, 입주공간 등 지원</t>
+          <t>국내 &amp;#40;예비&amp;#41;창업자를 대상으로 스타트업을 발굴하고 LG디스플레이와 상생협력 및 동반성장으로 이끌어내기 위해 사업화 및 LG디스플레이와의 협업 기회 제공 등을 지원해 드리는 사업입니다.
+☞ &amp;#40;예비&amp;#41;창업기업
+☞ 기업당 50,000천원 ~ 100,000천원 이내 지원</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068727&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070962&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
-        <v>20210901</v>
+        <v>20211126</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>20211231</v>
+        <v>20220107</v>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t>상시 접수</t>
+          <t>2021-11-26 ~ 2022-01-07</t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K56" s="3" t="inlineStr">
         <is>
-          <t>경남창조경제혁신센터</t>
+          <t>경기창조경제혁신센터</t>
         </is>
       </c>
       <c r="L56" s="3" t="inlineStr">
@@ -4081,19 +4117,19 @@
       </c>
       <c r="M56" s="3" t="inlineStr">
         <is>
-          <t>2021.09.01</t>
+          <t>2021.11.29</t>
         </is>
       </c>
       <c r="N56" s="3" t="n">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
@@ -4102,40 +4138,40 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>2021년 IR 피칭 참가기업 모집 공고(초기창업패키지 넥스트라이즈C-IR)</t>
+          <t>2021년 에코 콘텐츠 크리에이터 지원사업 참가자 모집 공고</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>초기창업패키지 선정 및 졸업기업을 대상으로 투자유치 역량 강화 및 기회 제공을 위하여 '초기창업패키지 넥스트라이즈C-IR 2021' 참가 시 스타트업 IR 관련 이해 1:1 전문가 컨설팅, 부스 설치 및 네트워킹, 행사 당일 IR Pitching 등을 지원해 드리는 사업입니다.
-☞ 초기창업기패키지 21년사업 선정기업 및 졸업기업, 창업선도대학 육성사업 졸업기업
-☞ 선정기업 사전코칭&amp;#40;BM 및 IR Deck&amp;#41;, 엔젤투자자와 네트워킹 등 지원</t>
+          <t>에코 분야 &amp;#40;예비&amp;#41;창업자를 대상으로 우수한 콘텐츠가 사업화 단계로 도약할 수 있도록 창업교육, 콘텐츠 매칭 상담회 등을 지원해드리는 사업입니다.
+☞ 환경을 생각하는 콘텐츠 사업모델을 보유한 예비창업자 또는 창업 7년 이내 스타트업
+☞ 기업니즈진단 및 분석, 창업교육, 콘텐츠 매칭 상담회 지원</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068688&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070803&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
-        <v>20210830</v>
+        <v>20211115</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>20210908</v>
+        <v>20211217</v>
       </c>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>2021-08-30 ~ 2021-09-08</t>
+          <t>2021-11-15 ~ 2021-12-17</t>
         </is>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K57" s="3" t="inlineStr">
         <is>
-          <t>대구창조경제혁신센터</t>
+          <t>경기콘텐츠진흥원</t>
         </is>
       </c>
       <c r="L57" s="3" t="inlineStr">
@@ -4145,19 +4181,19 @@
       </c>
       <c r="M57" s="3" t="inlineStr">
         <is>
-          <t>2021.08.31</t>
+          <t>2021.11.17</t>
         </is>
       </c>
       <c r="N57" s="3" t="n">
-        <v>50</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
@@ -4166,40 +4202,40 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>2021년 부산창조경제혁신센터ㆍ롯데월드 스타트업 오픈이노베이션 챌린지 참여기업 모집 공고</t>
+          <t>2021년 지구를 지키는 창업 에코창업경진대회 참가자 모집 공고</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>국내 실증 가능한 비즈니스모델을 보유한 테크&amp;서비스 스타트업의 지속가능한 동반성장 동력을 마련하고자 롯데월드 내 POC 검토ㆍ연계 통한 테스트베드 기회 및 멘토링 제공, 창업 지원사업 연계 및 홍보 등을 지원해 드리는 사업입니다.
-☞ 국내 실증 가능한 비즈니스모델을 보유한 업력 7년 미만의 테크&amp;서비스 스타트업
-☞ 피칭데이 개최 및 시상금, 투자사 및 대기업 연계 통한 투자 검토 등 지원</t>
+          <t>에코콘텐츠 융ㆍ복합 사업 아이템의 고부가가치 사업 전환을 위한 자금지원으로 기업 역량 강화하기 위해 에코창업경진대회에 참가 시 창업교육, 멘토링을 지원해드리는 사업입니다.
+☞ 예비창업자 또는 창업 7년 이내 스타트업
+☞ 분야별 창업교육 프로그램, 멘토링 지원</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068627&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070805&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
-        <v>20210827</v>
+        <v>20211115</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>20210914</v>
+        <v>20211217</v>
       </c>
       <c r="I58" s="3" t="inlineStr">
         <is>
-          <t>2021-08-27 ~ 2021-09-14</t>
+          <t>2021-11-15 ~ 2021-12-17</t>
         </is>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K58" s="3" t="inlineStr">
         <is>
-          <t>부산창조경제혁신센터</t>
+          <t>경기콘텐츠진흥원</t>
         </is>
       </c>
       <c r="L58" s="3" t="inlineStr">
@@ -4209,19 +4245,19 @@
       </c>
       <c r="M58" s="3" t="inlineStr">
         <is>
-          <t>2021.08.30</t>
+          <t>2021.11.17</t>
         </is>
       </c>
       <c r="N58" s="3" t="n">
-        <v>188</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
@@ -4230,40 +4266,40 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>2021년 U-STAR 베스트 그라운드 참가자 모집 공고</t>
+          <t>경남창조경제혁신센터 CORN 프로젝트 액셀러레이팅 사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>유망한 창업 아이템을 보유한 &amp;#40;예비&amp;#41;창업자를 대상으로 창업능력을 배양하기 위해 '2021 U-STAR 스타트업 베스트그라운드' 참가시 우수 아이템에 대한 포상 및 사업화를 지원해 드리는 사업입니다.
-☞ 기술을 보유한 예비창업자&amp;#40;팀&amp;#41; 또는 3년 이내 창업기업
-☞ 맞춤형 역량강화프로그램 및 상금 등 지원</t>
+          <t>창업의지가 높은 &amp;#40;예비&amp;#41;창업자를 대상으로 아이디어 사업화검증, 제품 및 사업개발을 위해 전문멘토 맞춤형 멘토링, 입주공간, 투자연결 등 액셀러레이팅을 지원해 드리는 사업입니다.
+☞ 창업 7년 이내의 아이디어를 보유한 &amp;#40;예비&amp;#41;창업자
+☞ MVP 제작, 전문멘토 맞춤형 멘토링, 입주공간 등 지원</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068524&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068727&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
-        <v>20210820</v>
+        <v>20210901</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>20210916</v>
+        <v>20211231</v>
       </c>
       <c r="I59" s="3" t="inlineStr">
         <is>
-          <t>2021-08-20 ~ 2021-09-16</t>
+          <t>상시 접수</t>
         </is>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="K59" s="3" t="inlineStr">
         <is>
-          <t>울산창조경제혁신센터</t>
+          <t>경남창조경제혁신센터</t>
         </is>
       </c>
       <c r="L59" s="3" t="inlineStr">
@@ -4273,61 +4309,61 @@
       </c>
       <c r="M59" s="3" t="inlineStr">
         <is>
-          <t>2021.08.25</t>
+          <t>2021.09.01</t>
         </is>
       </c>
       <c r="N59" s="3" t="n">
-        <v>160</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>창업</t>
+          <t>금융</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>2021년 예비스타트업 발굴ㆍ육성 프로그램 모집 공고</t>
+          <t>2021년 인천 창업펀드 투자유치 희망기업 신청 안내</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>유망 예비 스타트업을 대상으로 성공적인 창업을 위해 멘토링 및 교육, 시제품 제작, 온라인 홍보 등을 지원해 드리는 사업입니다.
-☞ 일반분야 및 특화분야&amp;#40;핀테크&amp;#41;에 해당하는 신규 창업 아이디어를 보유한 예비창업자&amp;#40;팀&amp;#41;, 대학&amp;#40;원&amp;#41;생
-☞ 멘토링, 교육, 시작품제작비 지원</t>
+          <t>인천광역시 미래성장 동력이 될 잠재력 있는 기업의 지속적인 발굴 및 육성을 위해 창업펀드 투자유치를 지원해드리는 사업입니다.
+☞ 인천 소재 투자유치 희망기업 및 투자 후 1년 이내 본사 또는 주된 사무소의 인천 이전 기업
+☞ 재기창업분야 펀드&amp;#40;규모 375억원&amp;#41;, 창업초기분야 펀드&amp;#40;규모 186억원&amp;#41; 등</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068439&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066661&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
-        <v>20210823</v>
+        <v>20210628</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>20210903</v>
+        <v>20211231</v>
       </c>
       <c r="I60" s="3" t="inlineStr">
         <is>
-          <t>2021-08-23 ~ 2021-09-03</t>
+          <t>상시 접수</t>
         </is>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="K60" s="3" t="inlineStr">
         <is>
-          <t>계명대학교</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="L60" s="3" t="inlineStr">
@@ -4337,207 +4373,15 @@
       </c>
       <c r="M60" s="3" t="inlineStr">
         <is>
-          <t>2021.08.24</t>
+          <t>2021.06.29</t>
         </is>
       </c>
       <c r="N60" s="3" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="n">
-        <v>62</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>창업</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="inlineStr">
-        <is>
-          <t>2021년 사업화 베이스먼트 멘토링 지원사업 모집 공고</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>국내 문화콘텐츠 예비창업자 및 초기 스타트업의 초기 단계의 시행착오를 최소화하고 성공적인 창업을 도모하고자 아이디어 검토 및 구체화, 마케팅 전략, 자금조달 등 분야별 전문가 멘토링을 지원해 드리는 사업입니다.
-☞ 문화콘텐츠 분야 예비창업자 및 창업 3년 미만 기업
-☞ 1:1 맞춤형 멘토링 진행</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068118&amp;menuId=80001001001</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="n">
-        <v>20210804</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>20211130</v>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>상시 접수</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>인천광역시</t>
-        </is>
-      </c>
-      <c r="K61" s="3" t="inlineStr">
-        <is>
-          <t>인천테크노파크</t>
-        </is>
-      </c>
-      <c r="L61" s="3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M61" s="3" t="inlineStr">
-        <is>
-          <t>2021.08.11</t>
-        </is>
-      </c>
-      <c r="N61" s="3" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>91</v>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>금융</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="inlineStr">
-        <is>
-          <t>2021년 인천 창업펀드 투자유치 희망기업 신청 안내</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>인천광역시 미래성장 동력이 될 잠재력 있는 기업의 지속적인 발굴 및 육성을 위해 창업펀드 투자유치를 지원해드리는 사업입니다.
-☞ 인천 소재 투자유치 희망기업 및 투자 후 1년 이내 본사 또는 주된 사무소의 인천 이전 기업
-☞ 재기창업분야 펀드&amp;#40;규모 375억원&amp;#41;, 창업초기분야 펀드&amp;#40;규모 186억원&amp;#41; 등</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000066661&amp;menuId=80001001001</t>
-        </is>
-      </c>
-      <c r="G62" s="3" t="n">
-        <v>20210628</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>20211231</v>
-      </c>
-      <c r="I62" s="3" t="inlineStr">
-        <is>
-          <t>상시 접수</t>
-        </is>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>인천광역시</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>인천테크노파크</t>
-        </is>
-      </c>
-      <c r="L62" s="3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M62" s="3" t="inlineStr">
-        <is>
-          <t>2021.06.29</t>
-        </is>
-      </c>
-      <c r="N62" s="3" t="n">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>금융</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="inlineStr">
-        <is>
-          <t>2021년 경남형 투자유치 역량강화 지원사업 창업자 모집 공고</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>기술 창업기반 우수 벤처ㆍ스타트업을 대상으로 투자연계기회 및 후속투자 등 스타트업 성장촉진을 도모하고자 I-GEN Mini IR 참가를 지원해 드리는 사업입니다.
-☞ 7년 이내의 기술 창업기반 우수 벤처 스타트업
-☞ 기업 IR 진행&amp;#40;오프라인&amp;#41;, 질의응답 및 평가 진행&amp;#40;온라인&amp;#41;</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000065512&amp;menuId=80001001001</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="n">
-        <v>20210601</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>20211130</v>
-      </c>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>2021-06-01 ~ 2021-11-30</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>경상남도</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>경남창조경제혁신센터</t>
-        </is>
-      </c>
-      <c r="L63" s="3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M63" s="3" t="inlineStr">
-        <is>
-          <t>2021.05.31</t>
-        </is>
-      </c>
-      <c r="N63" s="3" t="n">
-        <v>731</v>
+        <v>2786</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4553,9 +4397,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="105.3"/>
+    <col width="80.60000000000001" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4635,7 +4479,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
@@ -4644,40 +4488,40 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>2021년 IBK창공(創工) 대전 1기 혁신창업기업 모집 공고</t>
+          <t>2021년 4차 대전대학교 이노폴리스캠퍼스 사업화지원제작 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>창업기업들의 성공적인 사업모델 및 양질의 일자리를 창출하기 위하여 사무공간, 투자 및 융자, 판로개척 및 마케팅, 컨설팅 등을 지원해 드리는 사업입니다.
-☞ 업력 7년 미만 기업
-☞ 사무공간, 투자 및 융자, 교육 및 멘토링 등 지원</t>
+          <t>창의적 기술 아이디어ㆍ아이템을 보유한 스타트업을 대상으로 사업 성공 가능성 향상 및 창업 활성화를 도모하고자 BIㆍCI 제작, 홍보영상 제작, 시제품 제작 등을 지원해 드리는 사업입니다.
+☞ 2021. 04. 01. 이후 창업한 기술 창업 분야 스타트업
+☞ 최대 300만원 이내 간접지원</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068549&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000071043&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>20210826</v>
+        <v>20211201</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>20210930</v>
+        <v>20211231</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2021-08-26 ~ 2021-09-30</t>
+          <t>2021-12-01 ~ 2021-12-31</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>금융위원회</t>
+          <t>과학기술정보통신부</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>IBK기업은행</t>
+          <t>연구개발특구진흥재단</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -4687,61 +4531,61 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2021.08.26</t>
+          <t>2021.12.01</t>
         </is>
       </c>
       <c r="N2" s="3" t="n">
-        <v>1375</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>[대전] 2021년 대덕특구 바이오헬스 기술사업화 협업플랫폼 구축사업 예비창업팀 및 초기창업기업 추가모집 공고</t>
+          <t>[경기] 안양시 2021년 스타트업 데모데이 공고(안양청년창업 공모대전)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>성장잠재력이 높은 혁신기술기반의 바이오분야 예비창업팀 및 초기창업기업을 발굴하여 창업 성공률을 제고하고, 미래선도기업으로의 성장을 견인하고자 사업타당성 분석, 임상ㆍ인허가 전략 수립, 투자 유치 등을 지원해 드리는 사업입니다.
-☞ 최종선정 통보일 기준 1년 이내 대전 내 창업 예정인 예비창업자, 본사 대전 소재 창업 3년 미만 기업
-☞ 예비창업팀 및 초기창업기업 대상 맞춤형 엑셀러레이팅 지원</t>
+          <t>창업기업을 대상으로 청년창업 문화 확산과 스타트업 육성 발굴하기 위해 스타트업 데모데이를 통해 상금 및 시상을 지원해 드리는 사업입니다.
+☞ 창업기업&amp;#40;업력 7년 이내&amp;#41;
+☞ 상금 및 시상 지원</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068677&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070982&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>20210830</v>
+        <v>20211122</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20210910</v>
+        <v>20211208</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>2021-08-30 ~ 2021-09-10</t>
+          <t>2021-11-22 ~ 2021-12-08</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>과학기술정보통신부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>한국생명공학연구원</t>
+          <t>안양산업진흥원</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -4751,11 +4595,11 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>2021.08.31</t>
+          <t>2021.11.29</t>
         </is>
       </c>
       <c r="N3" s="3" t="n">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -4763,49 +4607,49 @@
         <v>70</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>[대전] 2021년 한국형 힐링 상품개발 과제모집 공고(대전 한의약특화거리 기반 K-Healing 상품 개발ㆍ활성화 사업)</t>
+          <t>[경기] 안양시 2021년 온라인 아이디어 해커톤 공고(안양청년창업 공모대전)</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>대전 근대문화예술특구의 골목상권 활성화 및 중소기업ㆍ소상공인의 경쟁력 차별화를 도모하고자 한국형 힐링 상품개발을 지원해 드리는 사업입니다.
-☞ 대전 근대문화예술특구 내 소재한 중소기업ㆍ소상공인ㆍ창업기업 등
-☞ 기업당 30,000천원 내외 지원</t>
+          <t>우수 아이디어를 보유한 예비 창업자를 대상으로 청년창업 문화 확산과 스타트업 육성 발굴하기 위해 온라인 아이디어 해커톤 수상시 상금 및 시상을 지원해 드리는 사업입니다.
+☞ 우수 아이디어를 보유한 예비 창업자
+☞ 상금 및 시상 지원</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000068667&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000070961&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>20210824</v>
+        <v>20211122</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>20210910</v>
+        <v>20211208</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>2021-08-24 ~ 2021-09-10</t>
+          <t>2021-11-22 ~ 2021-12-08</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>대전디자인진흥원</t>
+          <t>안양산업진흥원</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -4815,51 +4659,51 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>2021.08.31</t>
+          <t>2021.11.29</t>
         </is>
       </c>
       <c r="N4" s="3" t="n">
-        <v>62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>창업</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>[대전] 2021년 사회적경제기업 맞춤형 컨설팅 및 경영진단 시스템 마련 지원사업 참여기업 모집 공고</t>
+          <t>[대전] 2021년 외식창업 사관학교 푸드코트 4기 참여팀 모집 공고</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>대전 지역 사회적경제기업 및 창업을 준비하는 예비사회적경제기업 단체&amp;#40;개인&amp;#41;의 요구를 반영하여 애로사항 해소로 안정성 및 지속성을 도모하기 위하여 맞춤형 컨설팅 및 경영진단을 지원해 드리는 사업입니다.
-☞ 대전 관내 &amp;#40;예비&amp;#41;사회적경제기업 및 예비창업자, &amp;#40;예비&amp;#41;사회적경제기업으로의 전환 및 설립을 희망하는 일반기업
-☞ 분야별 전문가의 맞춤형 컨설팅 지원&amp;#40;기업당 최대 4회&amp;#41;</t>
+          <t>대전 지역 외식창업 희망 예비창업자들을 대상으로 보다 준비된 창업을 할 수 있도록 임대관리비, 전문가 컨설팅 등을 지원해 드리는 사업입니다. 
+☞ 대전광역시에 주소를 둔 외식창업을 희망하는 예비창업자&amp;#40;팀 대표&amp;#41;
+☞ 시설, 창업, 운영, 컨설팅 등 지원</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000064665&amp;menuId=80001001001</t>
+          <t>https://www.bizinfo.go.kr/see/seea/selectSEEA140Detail.do?pblancId=PBLN_000000000069140&amp;menuId=80001001001</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>20210503</v>
+        <v>20210913</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>20211029</v>
+        <v>20211231</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>예산 소진시까지</t>
+          <t>상시 모집</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -4879,16 +4723,16 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>2021.05.07</t>
+          <t>2021.09.13</t>
         </is>
       </c>
       <c r="N5" s="3" t="n">
-        <v>584</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>16</v>
@@ -4905,8 +4749,10 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>대전 지역 지식재산 아이디어를 보유 한 예비 창업자를 지속성장 가능한 지식재산 창업 기업으로 육성하고 창업 활성화를 도모하고자 아이디어를 사업 아이템으로 구체화 하고 실제 창업까지 연계 될 수 있도록 맞춤형 프로그램을 지원해 드리는 사업입니다.
-☞ 대전 소재 사업자등록을 하지 않은 예비창업자
+          <t>대전 지역 지식재산 아이디어를 보유 한 예비 창업자를 지속성장 가능한 지식재산 창업 기업으로 육성하고 창업 활성화를 도모하고자 아이디어를 사업 아이템으로 구체화 하고 실제 창업까지 연계 될 수 있도록 맞춤형 프로그램을 지원해 드리는 사업입니다.
++☞ 대전 소재 사업자등록을 하지 않은 예비창업자
+ ☞ 최대 160만원 지원</t>
         </is>
       </c>
@@ -4947,12 +4793,12 @@
         </is>
       </c>
       <c r="N6" s="3" t="n">
-        <v>1130</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>12</v>
@@ -4970,7 +4816,9 @@
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>대전광역시 소재 중소기업의 경쟁력 제고 및 성장촉진을 위해 창업 및 경쟁력강화자금을 융자 지원해 드리는 사업입니다.
+ ☞ 대전광역시에 본사 또는 사업장을 소재한 중소기업
+ ☞ 시설투자자금 10억원 이내, 운전자금 3억원 이내 융자 지원</t>
         </is>
       </c>
@@ -5011,12 +4859,12 @@
         </is>
       </c>
       <c r="N7" s="3" t="n">
-        <v>1664</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>10</v>
@@ -5034,7 +4882,9 @@
       <c r="E8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">대전 지역특성에 맞는 청년에게 적합한 지역일자리를 발굴ㆍ제공하여 청년취업으로 연계하고, 청년유입을 지원하여 지역 활력 제고를 도모해 드리는 사업입니다.
+ ☞ 대전 소재 기업
+ ☞ 인건비 등 지원 </t>
         </is>
       </c>
@@ -5075,10 +4925,10 @@
         </is>
       </c>
       <c r="N8" s="3" t="n">
-        <v>2553</v>
+        <v>3189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>